--- a/public/excel/Employee Enrollment Listing.xlsx
+++ b/public/excel/Employee Enrollment Listing.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRIC/FIN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth (DD/MM/YYYY)</t>
@@ -37,10 +31,10 @@
     <t xml:space="preserve">Work Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile Area Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
+    <t xml:space="preserve">Mobile Country Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Number</t>
   </si>
   <si>
     <t xml:space="preserve">Postal Code</t>
@@ -173,46 +167,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="12" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="10" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="26" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -221,25 +214,23 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="3"/>
-      <c r="I2" s="2" t="n">
+      <c r="B2" s="3"/>
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/public/excel/Employee Enrollment Listing.xlsx
+++ b/public/excel/Employee Enrollment Listing.xlsx
@@ -20,15 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRIC/FIN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Full Name</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth (DD/MM/YYYY)</t>
@@ -173,46 +167,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="12" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="10" style="0" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="26" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -221,25 +214,23 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="3"/>
-      <c r="I2" s="2" t="n">
+      <c r="B2" s="3"/>
+      <c r="G2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/public/excel/Employee Enrollment Listing.xlsx
+++ b/public/excel/Employee Enrollment Listing.xlsx
@@ -169,8 +169,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/excel/Employee Enrollment Listing.xlsx
+++ b/public/excel/Employee Enrollment Listing.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Mobile Country Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Mobile</t>
+    <t xml:space="preserve">Mobile Number</t>
   </si>
   <si>
     <t xml:space="preserve">Postal Code</t>
@@ -170,7 +170,7 @@
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
